--- a/plan_data.xlsx
+++ b/plan_data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B3A6D9-7C2C-4945-A52F-C06CEB3079F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8DA6520-F253-4A71-BB76-2210B7ADAD32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10860" yWindow="3150" windowWidth="10700" windowHeight="15370" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20490" yWindow="4990" windowWidth="16870" windowHeight="15370" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="jobs" sheetId="8" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="49">
   <si>
     <t>Id_product</t>
   </si>
@@ -552,7 +552,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -1194,10 +1194,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7421C8F-7B6E-4987-A148-F6810499FD5A}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1261,6 +1261,17 @@
         <v>70</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6">
+        <v>110</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
